--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KamanProd\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F49510-F4ED-46F6-BDE8-15F055D5AE83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC941DC0-E5EA-42C6-BD0F-AF61C06584CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="65">
   <si>
     <t>Runmode</t>
   </si>
@@ -236,9 +236,6 @@
   </si>
   <si>
     <t>Verify Login for Registered User</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -376,7 +373,27 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{A444948E-6AA8-45F3-AB40-38513383CF85}"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -831,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9FC807-CD3D-4456-9922-7EB264FD2C96}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23:E29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -878,7 +895,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
@@ -898,7 +915,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
@@ -918,7 +935,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>10</v>
@@ -938,7 +955,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>10</v>
@@ -958,7 +975,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>10</v>
@@ -978,7 +995,7 @@
         <v>59</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>10</v>
@@ -998,7 +1015,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>10</v>
@@ -1018,7 +1035,7 @@
         <v>28</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>10</v>
@@ -1038,7 +1055,7 @@
         <v>26</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>10</v>
@@ -1058,7 +1075,7 @@
         <v>34</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>10</v>
@@ -1078,7 +1095,7 @@
         <v>36</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>10</v>
@@ -1098,7 +1115,7 @@
         <v>38</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>10</v>
@@ -1118,7 +1135,7 @@
         <v>50</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>10</v>
@@ -1138,7 +1155,7 @@
         <v>40</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>10</v>
@@ -1158,7 +1175,7 @@
         <v>42</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>10</v>
@@ -1178,7 +1195,7 @@
         <v>44</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>10</v>
@@ -1198,7 +1215,7 @@
         <v>45</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>10</v>
@@ -1218,7 +1235,7 @@
         <v>45</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>10</v>
@@ -1238,7 +1255,7 @@
         <v>48</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>10</v>
@@ -1258,7 +1275,7 @@
         <v>53</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>10</v>
@@ -1425,37 +1442,19 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E21 E23:E29">
-    <cfRule type="uniqueValues" dxfId="10" priority="34"/>
+  <conditionalFormatting sqref="F23:F29">
+    <cfRule type="uniqueValues" dxfId="11" priority="48"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23:F29">
-    <cfRule type="uniqueValues" dxfId="9" priority="46"/>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="uniqueValues" dxfId="9" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21 E23:E29">
-    <cfRule type="uniqueValues" dxfId="8" priority="48"/>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="uniqueValues" dxfId="8" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E20">
-    <cfRule type="uniqueValues" dxfId="7" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E20">
-    <cfRule type="uniqueValues" dxfId="6" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="uniqueValues" dxfId="5" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="uniqueValues" dxfId="4" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25:E29">
-    <cfRule type="uniqueValues" dxfId="3" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25:E29">
-    <cfRule type="uniqueValues" dxfId="2" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
+  <conditionalFormatting sqref="E3:E29">
     <cfRule type="uniqueValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
+  <conditionalFormatting sqref="E3:E29">
     <cfRule type="uniqueValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KamanProd\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC941DC0-E5EA-42C6-BD0F-AF61C06584CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BDDEBF-8F85-43D1-9801-2077666D8635}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,9 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="65">
   <si>
-    <t>Runmode</t>
-  </si>
-  <si>
     <t>Functionality</t>
   </si>
   <si>
@@ -236,6 +233,9 @@
   </si>
   <si>
     <t>Verify Login for Registered User</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -373,47 +373,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{A444948E-6AA8-45F3-AB40-38513383CF85}"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -848,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9FC807-CD3D-4456-9922-7EB264FD2C96}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E29"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -863,598 +823,610 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="E2" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="45">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="45">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>59</v>
-      </c>
       <c r="E7" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>30</v>
-      </c>
       <c r="E8" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="E9" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="E10" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>34</v>
-      </c>
       <c r="E11" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>36</v>
-      </c>
       <c r="E12" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30">
       <c r="A13" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="E13" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>50</v>
-      </c>
       <c r="E14" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30">
       <c r="A15" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>40</v>
-      </c>
       <c r="E15" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="E16" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="30">
       <c r="A17" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>44</v>
-      </c>
       <c r="E17" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>48</v>
-      </c>
       <c r="E20" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>53</v>
-      </c>
       <c r="E21" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>64</v>
-      </c>
       <c r="E22" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>61</v>
-      </c>
       <c r="E23" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="10" t="s">
-        <v>55</v>
-      </c>
       <c r="E24" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="11" t="s">
-        <v>57</v>
-      </c>
       <c r="E27" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="10" t="s">
-        <v>20</v>
-      </c>
       <c r="E28" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="45">
       <c r="A29" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>18</v>
-      </c>
       <c r="E29" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F23:F29">
-    <cfRule type="uniqueValues" dxfId="11" priority="48"/>
+    <cfRule type="uniqueValues" dxfId="8" priority="52"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
-    <cfRule type="uniqueValues" dxfId="9" priority="9"/>
+  <conditionalFormatting sqref="E1:E21">
+    <cfRule type="uniqueValues" dxfId="7" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
-    <cfRule type="uniqueValues" dxfId="8" priority="10"/>
+  <conditionalFormatting sqref="E1:E21">
+    <cfRule type="uniqueValues" dxfId="6" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E29">
+    <cfRule type="uniqueValues" dxfId="5" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E29">
+    <cfRule type="uniqueValues" dxfId="4" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="uniqueValues" dxfId="3" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="uniqueValues" dxfId="2" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25:E29">
     <cfRule type="uniqueValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E29">
+  <conditionalFormatting sqref="E25:E29">
     <cfRule type="uniqueValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KamanProd\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BDDEBF-8F85-43D1-9801-2077666D8635}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA32170-43C3-4DC1-8000-FF73AA828414}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -235,7 +235,7 @@
     <t>Verify Login for Registered User</t>
   </si>
   <si>
-    <t>NO</t>
+    <t>Runmode</t>
   </si>
 </sst>
 </file>
@@ -808,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9FC807-CD3D-4456-9922-7EB264FD2C96}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25:E29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -834,7 +834,7 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>64</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -855,7 +855,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>9</v>
@@ -875,7 +875,7 @@
         <v>31</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>
@@ -895,7 +895,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>9</v>
@@ -915,7 +915,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>9</v>
@@ -935,7 +935,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>9</v>
@@ -955,7 +955,7 @@
         <v>58</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>9</v>
@@ -975,7 +975,7 @@
         <v>29</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>9</v>
@@ -995,7 +995,7 @@
         <v>27</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>9</v>
@@ -1015,7 +1015,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>9</v>
@@ -1035,7 +1035,7 @@
         <v>33</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>9</v>
@@ -1055,7 +1055,7 @@
         <v>35</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>9</v>
@@ -1075,7 +1075,7 @@
         <v>37</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>9</v>
@@ -1095,7 +1095,7 @@
         <v>49</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>9</v>
@@ -1115,7 +1115,7 @@
         <v>39</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>9</v>
@@ -1135,7 +1135,7 @@
         <v>41</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>9</v>
@@ -1155,7 +1155,7 @@
         <v>43</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>9</v>
@@ -1175,7 +1175,7 @@
         <v>44</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>9</v>
@@ -1195,7 +1195,7 @@
         <v>44</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>9</v>
@@ -1215,7 +1215,7 @@
         <v>47</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>9</v>
@@ -1235,7 +1235,7 @@
         <v>52</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>9</v>
@@ -1275,7 +1275,7 @@
         <v>60</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>9</v>
@@ -1315,7 +1315,7 @@
         <v>22</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>9</v>
@@ -1335,7 +1335,7 @@
         <v>20</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>9</v>
@@ -1355,7 +1355,7 @@
         <v>56</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>9</v>
@@ -1375,7 +1375,7 @@
         <v>19</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>9</v>
@@ -1395,7 +1395,7 @@
         <v>17</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>9</v>
@@ -1405,10 +1405,10 @@
   <conditionalFormatting sqref="F23:F29">
     <cfRule type="uniqueValues" dxfId="8" priority="52"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E21">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="7" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E21">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="uniqueValues" dxfId="6" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E29">

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KamanProd\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA32170-43C3-4DC1-8000-FF73AA828414}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66592293-5DF5-4237-8C96-8A5C410674DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="68">
   <si>
     <t>Functionality</t>
   </si>
@@ -236,6 +236,16 @@
   </si>
   <si>
     <t>Runmode</t>
+  </si>
+  <si>
+    <t>TC39_Add_MultipleItems_to_cart</t>
+  </si>
+  <si>
+    <t>1. more than 10 Items should be added to cart
+2. Appropriate inventory message must be displayed</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -373,7 +383,267 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{A444948E-6AA8-45F3-AB40-38513383CF85}"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="35">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -806,10 +1076,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9FC807-CD3D-4456-9922-7EB264FD2C96}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -855,7 +1125,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>9</v>
@@ -875,7 +1145,7 @@
         <v>31</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>
@@ -895,7 +1165,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>9</v>
@@ -915,7 +1185,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>9</v>
@@ -935,7 +1205,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>9</v>
@@ -955,7 +1225,7 @@
         <v>58</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>9</v>
@@ -975,7 +1245,7 @@
         <v>29</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>9</v>
@@ -995,7 +1265,7 @@
         <v>27</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>9</v>
@@ -1015,7 +1285,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>9</v>
@@ -1035,7 +1305,7 @@
         <v>33</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>9</v>
@@ -1055,7 +1325,7 @@
         <v>35</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>9</v>
@@ -1075,7 +1345,7 @@
         <v>37</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>9</v>
@@ -1095,7 +1365,7 @@
         <v>49</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>9</v>
@@ -1115,7 +1385,7 @@
         <v>39</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>9</v>
@@ -1135,7 +1405,7 @@
         <v>41</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>9</v>
@@ -1155,7 +1425,7 @@
         <v>43</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>9</v>
@@ -1175,7 +1445,7 @@
         <v>44</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>9</v>
@@ -1195,7 +1465,7 @@
         <v>44</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>9</v>
@@ -1215,7 +1485,7 @@
         <v>47</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>9</v>
@@ -1235,7 +1505,7 @@
         <v>52</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>9</v>
@@ -1254,7 +1524,7 @@
       <c r="D22" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="5" t="s">
         <v>61</v>
       </c>
       <c r="F22" s="1" t="s">
@@ -1275,7 +1545,7 @@
         <v>60</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>9</v>
@@ -1294,7 +1564,7 @@
       <c r="D24" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="5" t="s">
         <v>61</v>
       </c>
       <c r="F24" s="5" t="s">
@@ -1315,7 +1585,7 @@
         <v>22</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>9</v>
@@ -1335,7 +1605,7 @@
         <v>20</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>9</v>
@@ -1355,7 +1625,7 @@
         <v>56</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>9</v>
@@ -1375,7 +1645,7 @@
         <v>19</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>9</v>
@@ -1395,26 +1665,94 @@
         <v>17</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F29" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="30">
+      <c r="A30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F23:F29">
-    <cfRule type="uniqueValues" dxfId="8" priority="52"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="7" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="6" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E29">
+    <cfRule type="uniqueValues" dxfId="34" priority="78"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E21 E25:E29">
+    <cfRule type="uniqueValues" dxfId="33" priority="39"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E21 E25:E29">
+    <cfRule type="uniqueValues" dxfId="32" priority="40"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E21 E25:E29">
+    <cfRule type="uniqueValues" dxfId="31" priority="31"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E21 E25:E29">
+    <cfRule type="uniqueValues" dxfId="30" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25:E29">
+    <cfRule type="uniqueValues" dxfId="27" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25:E29">
+    <cfRule type="uniqueValues" dxfId="26" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="uniqueValues" dxfId="21" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="uniqueValues" dxfId="20" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="uniqueValues" dxfId="19" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="uniqueValues" dxfId="18" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="uniqueValues" dxfId="13" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="uniqueValues" dxfId="12" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="uniqueValues" dxfId="11" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="uniqueValues" dxfId="10" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="uniqueValues" dxfId="9" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="uniqueValues" dxfId="8" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="uniqueValues" dxfId="7" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="uniqueValues" dxfId="6" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
     <cfRule type="uniqueValues" dxfId="5" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E29">
+  <conditionalFormatting sqref="E22">
     <cfRule type="uniqueValues" dxfId="4" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
@@ -1423,10 +1761,10 @@
   <conditionalFormatting sqref="E23">
     <cfRule type="uniqueValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E25:E29">
+  <conditionalFormatting sqref="E23">
     <cfRule type="uniqueValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E25:E29">
+  <conditionalFormatting sqref="E23">
     <cfRule type="uniqueValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KamanProd\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66592293-5DF5-4237-8C96-8A5C410674DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3AB9E3-584D-4B83-9FE2-3114ECAFE312}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="65">
   <si>
     <t>Functionality</t>
   </si>
@@ -236,16 +236,6 @@
   </si>
   <si>
     <t>Runmode</t>
-  </si>
-  <si>
-    <t>TC39_Add_MultipleItems_to_cart</t>
-  </si>
-  <si>
-    <t>1. more than 10 Items should be added to cart
-2. Appropriate inventory message must be displayed</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
 </sst>
 </file>
@@ -383,177 +373,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{A444948E-6AA8-45F3-AB40-38513383CF85}"/>
   </cellStyles>
-  <dxfs count="35">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1076,10 +896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9FC807-CD3D-4456-9922-7EB264FD2C96}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E2" sqref="E2:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1125,7 +945,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>9</v>
@@ -1145,7 +965,7 @@
         <v>31</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>
@@ -1165,7 +985,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>9</v>
@@ -1185,7 +1005,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>9</v>
@@ -1205,7 +1025,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>9</v>
@@ -1225,7 +1045,7 @@
         <v>58</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>9</v>
@@ -1245,7 +1065,7 @@
         <v>29</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>9</v>
@@ -1265,7 +1085,7 @@
         <v>27</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>9</v>
@@ -1285,7 +1105,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>9</v>
@@ -1305,7 +1125,7 @@
         <v>33</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>9</v>
@@ -1325,7 +1145,7 @@
         <v>35</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>9</v>
@@ -1345,7 +1165,7 @@
         <v>37</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>9</v>
@@ -1365,7 +1185,7 @@
         <v>49</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>9</v>
@@ -1385,7 +1205,7 @@
         <v>39</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>9</v>
@@ -1405,7 +1225,7 @@
         <v>41</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>9</v>
@@ -1425,7 +1245,7 @@
         <v>43</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>9</v>
@@ -1445,7 +1265,7 @@
         <v>44</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>9</v>
@@ -1465,7 +1285,7 @@
         <v>44</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>9</v>
@@ -1485,7 +1305,7 @@
         <v>47</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>9</v>
@@ -1505,7 +1325,7 @@
         <v>52</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>9</v>
@@ -1524,7 +1344,7 @@
       <c r="D22" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="4" t="s">
         <v>61</v>
       </c>
       <c r="F22" s="1" t="s">
@@ -1545,7 +1365,7 @@
         <v>60</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>9</v>
@@ -1564,7 +1384,7 @@
       <c r="D24" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="4" t="s">
         <v>61</v>
       </c>
       <c r="F24" s="5" t="s">
@@ -1585,7 +1405,7 @@
         <v>22</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>9</v>
@@ -1605,7 +1425,7 @@
         <v>20</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>9</v>
@@ -1625,7 +1445,7 @@
         <v>56</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>9</v>
@@ -1645,7 +1465,7 @@
         <v>19</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>9</v>
@@ -1665,107 +1485,66 @@
         <v>17</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="30">
-      <c r="A30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F30" s="1" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F23:F29">
-    <cfRule type="uniqueValues" dxfId="34" priority="78"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E21 E25:E29">
-    <cfRule type="uniqueValues" dxfId="33" priority="39"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E21 E25:E29">
-    <cfRule type="uniqueValues" dxfId="32" priority="40"/>
+    <cfRule type="uniqueValues" dxfId="17" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E21 E25:E29">
-    <cfRule type="uniqueValues" dxfId="31" priority="31"/>
+    <cfRule type="uniqueValues" dxfId="16" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E21 E25:E29">
-    <cfRule type="uniqueValues" dxfId="30" priority="32"/>
+    <cfRule type="uniqueValues" dxfId="15" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25:E29">
-    <cfRule type="uniqueValues" dxfId="27" priority="27"/>
+    <cfRule type="uniqueValues" dxfId="14" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25:E29">
-    <cfRule type="uniqueValues" dxfId="26" priority="28"/>
+    <cfRule type="uniqueValues" dxfId="13" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="uniqueValues" dxfId="21" priority="21"/>
+    <cfRule type="uniqueValues" dxfId="12" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="uniqueValues" dxfId="20" priority="22"/>
+    <cfRule type="uniqueValues" dxfId="11" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="uniqueValues" dxfId="19" priority="19"/>
+    <cfRule type="uniqueValues" dxfId="10" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="uniqueValues" dxfId="18" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="uniqueValues" dxfId="13" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="uniqueValues" dxfId="12" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="uniqueValues" dxfId="11" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="uniqueValues" dxfId="10" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="uniqueValues" dxfId="9" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="uniqueValues" dxfId="8" priority="10"/>
+    <cfRule type="uniqueValues" dxfId="9" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="uniqueValues" dxfId="7" priority="7"/>
+    <cfRule type="uniqueValues" dxfId="8" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="uniqueValues" dxfId="6" priority="8"/>
+    <cfRule type="uniqueValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="uniqueValues" dxfId="5" priority="5"/>
+    <cfRule type="uniqueValues" dxfId="6" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="uniqueValues" dxfId="4" priority="6"/>
+    <cfRule type="uniqueValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="uniqueValues" dxfId="3" priority="3"/>
+    <cfRule type="uniqueValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="uniqueValues" dxfId="2" priority="4"/>
+    <cfRule type="uniqueValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="uniqueValues" dxfId="1" priority="1"/>
+    <cfRule type="uniqueValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="uniqueValues" dxfId="0" priority="2"/>
+    <cfRule type="uniqueValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E29">
+    <cfRule type="uniqueValues" dxfId="0" priority="79"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KamanProd\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3AB9E3-584D-4B83-9FE2-3114ECAFE312}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532CE982-C010-486B-81C5-265F1A2AD322}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="68">
   <si>
     <t>Functionality</t>
   </si>
@@ -236,6 +236,15 @@
   </si>
   <si>
     <t>Runmode</t>
+  </si>
+  <si>
+    <t>TC41_Add_MultipleItems_to_cart_Prod</t>
+  </si>
+  <si>
+    <t>Adding multiple items to cart in prod</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -373,7 +382,17 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{A444948E-6AA8-45F3-AB40-38513383CF85}"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -896,10 +915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9FC807-CD3D-4456-9922-7EB264FD2C96}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -945,7 +964,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>9</v>
@@ -965,7 +984,7 @@
         <v>31</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>
@@ -985,7 +1004,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>9</v>
@@ -1005,7 +1024,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>9</v>
@@ -1025,7 +1044,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>9</v>
@@ -1045,7 +1064,7 @@
         <v>58</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>9</v>
@@ -1065,7 +1084,7 @@
         <v>29</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>9</v>
@@ -1085,7 +1104,7 @@
         <v>27</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>9</v>
@@ -1105,7 +1124,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>9</v>
@@ -1125,7 +1144,7 @@
         <v>33</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>9</v>
@@ -1145,7 +1164,7 @@
         <v>35</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>9</v>
@@ -1165,7 +1184,7 @@
         <v>37</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>9</v>
@@ -1185,7 +1204,7 @@
         <v>49</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>9</v>
@@ -1205,7 +1224,7 @@
         <v>39</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>9</v>
@@ -1225,7 +1244,7 @@
         <v>41</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>9</v>
@@ -1245,7 +1264,7 @@
         <v>43</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>9</v>
@@ -1265,7 +1284,7 @@
         <v>44</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>9</v>
@@ -1285,7 +1304,7 @@
         <v>44</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>9</v>
@@ -1305,7 +1324,7 @@
         <v>47</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>9</v>
@@ -1325,7 +1344,7 @@
         <v>52</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>9</v>
@@ -1345,7 +1364,7 @@
         <v>63</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>9</v>
@@ -1365,7 +1384,7 @@
         <v>60</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>9</v>
@@ -1385,7 +1404,7 @@
         <v>54</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>9</v>
@@ -1405,7 +1424,7 @@
         <v>22</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>9</v>
@@ -1425,7 +1444,7 @@
         <v>20</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>9</v>
@@ -1445,7 +1464,7 @@
         <v>56</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>9</v>
@@ -1465,7 +1484,7 @@
         <v>19</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>9</v>
@@ -1485,66 +1504,41 @@
         <v>17</v>
       </c>
       <c r="E29" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F30" s="1" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F23:F29">
-    <cfRule type="uniqueValues" dxfId="17" priority="78"/>
+    <cfRule type="uniqueValues" dxfId="18" priority="79"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E21 E25:E29">
-    <cfRule type="uniqueValues" dxfId="16" priority="31"/>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="uniqueValues" dxfId="1" priority="80"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E21 E25:E29">
-    <cfRule type="uniqueValues" dxfId="15" priority="32"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25:E29">
-    <cfRule type="uniqueValues" dxfId="14" priority="27"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25:E29">
-    <cfRule type="uniqueValues" dxfId="13" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="uniqueValues" dxfId="12" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="uniqueValues" dxfId="11" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="uniqueValues" dxfId="10" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="uniqueValues" dxfId="9" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="uniqueValues" dxfId="8" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="uniqueValues" dxfId="7" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="uniqueValues" dxfId="6" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="uniqueValues" dxfId="5" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="uniqueValues" dxfId="4" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="uniqueValues" dxfId="3" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="uniqueValues" dxfId="2" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="uniqueValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="uniqueValues" dxfId="0" priority="79"/>
+  <conditionalFormatting sqref="E3:E30">
+    <cfRule type="uniqueValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KamanProd\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532CE982-C010-486B-81C5-265F1A2AD322}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC7D239-1FC2-4C17-B634-C495DA52FEC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="67">
   <si>
     <t>Functionality</t>
   </si>
@@ -242,9 +242,6 @@
   </si>
   <si>
     <t>Adding multiple items to cart in prod</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
 </sst>
 </file>
@@ -382,167 +379,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{A444948E-6AA8-45F3-AB40-38513383CF85}"/>
   </cellStyles>
-  <dxfs count="19">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -917,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9FC807-CD3D-4456-9922-7EB264FD2C96}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -964,7 +801,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>9</v>
@@ -984,7 +821,7 @@
         <v>31</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>
@@ -1004,7 +841,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>9</v>
@@ -1024,7 +861,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>9</v>
@@ -1044,7 +881,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>9</v>
@@ -1064,7 +901,7 @@
         <v>58</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>9</v>
@@ -1084,7 +921,7 @@
         <v>29</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>9</v>
@@ -1104,7 +941,7 @@
         <v>27</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>9</v>
@@ -1124,7 +961,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>9</v>
@@ -1144,7 +981,7 @@
         <v>33</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>9</v>
@@ -1164,7 +1001,7 @@
         <v>35</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>9</v>
@@ -1184,7 +1021,7 @@
         <v>37</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>9</v>
@@ -1204,7 +1041,7 @@
         <v>49</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>9</v>
@@ -1224,7 +1061,7 @@
         <v>39</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>9</v>
@@ -1244,7 +1081,7 @@
         <v>41</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>9</v>
@@ -1264,7 +1101,7 @@
         <v>43</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>9</v>
@@ -1284,7 +1121,7 @@
         <v>44</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>9</v>
@@ -1304,7 +1141,7 @@
         <v>44</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>9</v>
@@ -1324,7 +1161,7 @@
         <v>47</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>9</v>
@@ -1344,7 +1181,7 @@
         <v>52</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>9</v>
@@ -1364,7 +1201,7 @@
         <v>63</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>9</v>
@@ -1384,7 +1221,7 @@
         <v>60</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>9</v>
@@ -1404,7 +1241,7 @@
         <v>54</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>9</v>
@@ -1424,7 +1261,7 @@
         <v>22</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>9</v>
@@ -1444,7 +1281,7 @@
         <v>20</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>9</v>
@@ -1464,7 +1301,7 @@
         <v>56</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>9</v>
@@ -1484,7 +1321,7 @@
         <v>19</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>9</v>
@@ -1504,7 +1341,7 @@
         <v>17</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>9</v>
@@ -1532,9 +1369,9 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F23:F29">
-    <cfRule type="uniqueValues" dxfId="18" priority="79"/>
+    <cfRule type="uniqueValues" dxfId="2" priority="79"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
+  <conditionalFormatting sqref="E2:E30">
     <cfRule type="uniqueValues" dxfId="1" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E30">

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KamanProd\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC7D239-1FC2-4C17-B634-C495DA52FEC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0661AC77-7A4C-459B-B2FC-074C6D1603B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -754,7 +754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9FC807-CD3D-4456-9922-7EB264FD2C96}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E30"/>
     </sheetView>
   </sheetViews>

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KamanProd\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0661AC77-7A4C-459B-B2FC-074C6D1603B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597416DB-C328-4451-822D-5282C0A18C16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="68">
   <si>
     <t>Functionality</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t>Adding multiple items to cart in prod</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -754,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9FC807-CD3D-4456-9922-7EB264FD2C96}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -801,7 +804,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>9</v>
@@ -841,7 +844,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>9</v>
@@ -861,7 +864,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>9</v>
@@ -881,7 +884,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>9</v>
@@ -901,7 +904,7 @@
         <v>58</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>9</v>
@@ -921,7 +924,7 @@
         <v>29</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>9</v>
@@ -941,7 +944,7 @@
         <v>27</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>9</v>
@@ -961,7 +964,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>9</v>
@@ -981,7 +984,7 @@
         <v>33</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>9</v>
@@ -1001,7 +1004,7 @@
         <v>35</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>9</v>
@@ -1021,7 +1024,7 @@
         <v>37</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>9</v>
@@ -1041,7 +1044,7 @@
         <v>49</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>9</v>
@@ -1061,7 +1064,7 @@
         <v>39</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>9</v>
@@ -1081,7 +1084,7 @@
         <v>41</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>9</v>
@@ -1101,7 +1104,7 @@
         <v>43</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>9</v>
@@ -1121,7 +1124,7 @@
         <v>44</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>9</v>
@@ -1141,7 +1144,7 @@
         <v>44</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>9</v>
@@ -1161,7 +1164,7 @@
         <v>47</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>9</v>
@@ -1181,7 +1184,7 @@
         <v>52</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>9</v>
@@ -1201,7 +1204,7 @@
         <v>63</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>9</v>
@@ -1221,7 +1224,7 @@
         <v>60</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>9</v>
@@ -1241,7 +1244,7 @@
         <v>54</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>9</v>
@@ -1261,7 +1264,7 @@
         <v>22</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>9</v>
@@ -1281,7 +1284,7 @@
         <v>20</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>9</v>
@@ -1301,7 +1304,7 @@
         <v>56</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>9</v>
@@ -1321,7 +1324,7 @@
         <v>19</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>9</v>
@@ -1341,7 +1344,7 @@
         <v>17</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>9</v>
@@ -1361,7 +1364,7 @@
         <v>66</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>9</v>

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KamanProd\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597416DB-C328-4451-822D-5282C0A18C16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC023FC7-99CA-4653-B6AF-F1892A9A4940}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="67">
   <si>
     <t>Functionality</t>
   </si>
@@ -242,9 +242,6 @@
   </si>
   <si>
     <t>Adding multiple items to cart in prod</t>
-  </si>
-  <si>
-    <t>no</t>
   </si>
 </sst>
 </file>
@@ -758,7 +755,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E30"/>
+      <selection activeCell="E2" sqref="E2:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -804,7 +801,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>9</v>
@@ -844,7 +841,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>9</v>
@@ -864,7 +861,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>9</v>
@@ -884,7 +881,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>9</v>
@@ -904,7 +901,7 @@
         <v>58</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>9</v>
@@ -924,7 +921,7 @@
         <v>29</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>9</v>
@@ -944,7 +941,7 @@
         <v>27</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>9</v>
@@ -964,7 +961,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>9</v>
@@ -984,7 +981,7 @@
         <v>33</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>9</v>
@@ -1004,7 +1001,7 @@
         <v>35</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>9</v>
@@ -1024,7 +1021,7 @@
         <v>37</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>9</v>
@@ -1044,7 +1041,7 @@
         <v>49</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>9</v>
@@ -1064,7 +1061,7 @@
         <v>39</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>9</v>
@@ -1084,7 +1081,7 @@
         <v>41</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>9</v>
@@ -1104,7 +1101,7 @@
         <v>43</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>9</v>
@@ -1124,7 +1121,7 @@
         <v>44</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>9</v>
@@ -1144,7 +1141,7 @@
         <v>44</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>9</v>
@@ -1164,7 +1161,7 @@
         <v>47</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>9</v>
@@ -1184,7 +1181,7 @@
         <v>52</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>9</v>
@@ -1204,7 +1201,7 @@
         <v>63</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>9</v>
@@ -1224,7 +1221,7 @@
         <v>60</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>9</v>
@@ -1244,7 +1241,7 @@
         <v>54</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>9</v>
@@ -1264,7 +1261,7 @@
         <v>22</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>9</v>
@@ -1284,7 +1281,7 @@
         <v>20</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>9</v>
@@ -1304,7 +1301,7 @@
         <v>56</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>9</v>
@@ -1324,7 +1321,7 @@
         <v>19</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>9</v>
@@ -1344,7 +1341,7 @@
         <v>17</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>9</v>
@@ -1364,7 +1361,7 @@
         <v>66</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>9</v>
@@ -1377,7 +1374,7 @@
   <conditionalFormatting sqref="E2:E30">
     <cfRule type="uniqueValues" dxfId="1" priority="80"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E30">
+  <conditionalFormatting sqref="E2:E30">
     <cfRule type="uniqueValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KamanProd\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC023FC7-99CA-4653-B6AF-F1892A9A4940}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36127F2-82A8-4AEF-9028-F79C0F5D622B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -128,12 +128,6 @@
     <t>User should be directed to category page</t>
   </si>
   <si>
-    <t>TC02_Verify_HOME_PDP_PLP_CATEGORY</t>
-  </si>
-  <si>
-    <t>Verify home page, PDP, PLP, search results, cart ,Category - Basic checks</t>
-  </si>
-  <si>
     <t>TC10_Verify_Search_results</t>
   </si>
   <si>
@@ -242,6 +236,13 @@
   </si>
   <si>
     <t>Adding multiple items to cart in prod</t>
+  </si>
+  <si>
+    <t>TC02_Verify_HOME_PDP_PLP_CATEGORY</t>
+  </si>
+  <si>
+    <t>1. Go to home page
+2. Verify Home , PDP,PLP &amp; Category pages</t>
   </si>
 </sst>
 </file>
@@ -781,7 +782,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>1</v>
@@ -801,27 +802,27 @@
         <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" ht="30">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>31</v>
+      <c r="C3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>
@@ -841,7 +842,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>9</v>
@@ -861,7 +862,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>9</v>
@@ -881,7 +882,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>9</v>
@@ -895,13 +896,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>9</v>
@@ -921,7 +922,7 @@
         <v>29</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>9</v>
@@ -941,7 +942,7 @@
         <v>27</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>9</v>
@@ -961,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>9</v>
@@ -975,13 +976,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>9</v>
@@ -995,13 +996,13 @@
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>9</v>
@@ -1015,13 +1016,13 @@
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>9</v>
@@ -1035,13 +1036,13 @@
         <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>9</v>
@@ -1055,13 +1056,13 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>9</v>
@@ -1075,13 +1076,13 @@
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>9</v>
@@ -1095,13 +1096,13 @@
         <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>9</v>
@@ -1115,13 +1116,13 @@
         <v>6</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>9</v>
@@ -1135,13 +1136,13 @@
         <v>6</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>9</v>
@@ -1155,13 +1156,13 @@
         <v>6</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>9</v>
@@ -1175,13 +1176,13 @@
         <v>6</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>9</v>
@@ -1195,13 +1196,13 @@
         <v>6</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>9</v>
@@ -1215,13 +1216,13 @@
         <v>6</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>9</v>
@@ -1235,13 +1236,13 @@
         <v>6</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>9</v>
@@ -1261,7 +1262,7 @@
         <v>22</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>9</v>
@@ -1281,7 +1282,7 @@
         <v>20</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>9</v>
@@ -1295,13 +1296,13 @@
         <v>6</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>9</v>
@@ -1321,7 +1322,7 @@
         <v>19</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>9</v>
@@ -1341,7 +1342,7 @@
         <v>17</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>9</v>
@@ -1355,13 +1356,13 @@
         <v>6</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>9</v>
@@ -1369,12 +1370,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F23:F29">
-    <cfRule type="uniqueValues" dxfId="2" priority="79"/>
+    <cfRule type="uniqueValues" dxfId="2" priority="80"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E30">
-    <cfRule type="uniqueValues" dxfId="1" priority="80"/>
+  <conditionalFormatting sqref="E2 E4:E30">
+    <cfRule type="uniqueValues" dxfId="1" priority="83"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E30">
+  <conditionalFormatting sqref="E3">
     <cfRule type="uniqueValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KamanProd\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36127F2-82A8-4AEF-9028-F79C0F5D622B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C4754A-909D-40F2-8CA8-016FFE36D194}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="MasterExecutor" sheetId="10" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MasterExecutor!$A$1:$F$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MasterExecutor!$A$1:$F$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="65">
   <si>
     <t>Functionality</t>
   </si>
@@ -236,13 +236,6 @@
   </si>
   <si>
     <t>Adding multiple items to cart in prod</t>
-  </si>
-  <si>
-    <t>TC02_Verify_HOME_PDP_PLP_CATEGORY</t>
-  </si>
-  <si>
-    <t>1. Go to home page
-2. Verify Home , PDP,PLP &amp; Category pages</t>
   </si>
 </sst>
 </file>
@@ -380,7 +373,17 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{A444948E-6AA8-45F3-AB40-38513383CF85}"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -753,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9FC807-CD3D-4456-9922-7EB264FD2C96}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E30"/>
+      <selection activeCell="E2" sqref="E2:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -808,7 +811,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30">
+    <row r="3" spans="1:6" ht="45">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -816,10 +819,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>59</v>
@@ -828,7 +831,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="45">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -836,10 +839,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>59</v>
@@ -855,11 +858,11 @@
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>12</v>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>59</v>
@@ -868,18 +871,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="45">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
+      <c r="C6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>59</v>
@@ -888,18 +891,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="45">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>55</v>
+      <c r="C7" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>59</v>
@@ -916,10 +919,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>59</v>
@@ -936,10 +939,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>59</v>
@@ -956,10 +959,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>59</v>
@@ -976,10 +979,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>59</v>
@@ -988,7 +991,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" ht="30">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -996,10 +999,10 @@
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>59</v>
@@ -1008,18 +1011,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:6">
+      <c r="A13" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>35</v>
+        <v>46</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>59</v>
@@ -1028,27 +1031,27 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:6" ht="30">
+      <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>47</v>
+        <v>36</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="30">
+      <c r="F14" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -1056,19 +1059,19 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="F15" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
@@ -1076,10 +1079,10 @@
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>59</v>
@@ -1088,7 +1091,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="30">
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
@@ -1096,10 +1099,10 @@
         <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>41</v>
+        <v>48</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>59</v>
@@ -1116,9 +1119,9 @@
         <v>6</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>42</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -1136,10 +1139,10 @@
         <v>6</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>59</v>
@@ -1156,10 +1159,10 @@
         <v>6</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>59</v>
@@ -1175,11 +1178,11 @@
       <c r="B21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>50</v>
+      <c r="C21" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>59</v>
@@ -1196,15 +1199,15 @@
         <v>6</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1215,11 +1218,11 @@
       <c r="B23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>58</v>
+      <c r="C23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>59</v>
@@ -1229,17 +1232,17 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>59</v>
@@ -1256,10 +1259,10 @@
         <v>6</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>59</v>
@@ -1276,10 +1279,10 @@
         <v>6</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>20</v>
+        <v>53</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>59</v>
@@ -1296,10 +1299,10 @@
         <v>6</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>54</v>
+        <v>18</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>59</v>
@@ -1308,18 +1311,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="7" t="s">
+    <row r="28" spans="1:6" ht="45">
+      <c r="A28" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>59</v>
@@ -1328,7 +1331,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="45">
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
         <v>5</v>
       </c>
@@ -1336,46 +1339,26 @@
         <v>6</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F30" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F23:F29">
-    <cfRule type="uniqueValues" dxfId="2" priority="80"/>
+  <conditionalFormatting sqref="F22:F28">
+    <cfRule type="uniqueValues" dxfId="3" priority="81"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2 E4:E30">
-    <cfRule type="uniqueValues" dxfId="1" priority="83"/>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="uniqueValues" dxfId="2" priority="84"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
+  <conditionalFormatting sqref="E3:E29">
     <cfRule type="uniqueValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KamanProd\Input_files\Master_executors\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KamanProd_ChangeBranch\Kaman_Production_Sanity\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C4754A-909D-40F2-8CA8-016FFE36D194}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6742FC-147D-458C-82FA-8D3B87CCEE30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="66">
   <si>
     <t>Functionality</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>Adding multiple items to cart in prod</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -373,17 +376,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{A444948E-6AA8-45F3-AB40-38513383CF85}"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -758,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9FC807-CD3D-4456-9922-7EB264FD2C96}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1345,7 +1338,7 @@
         <v>64</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>9</v>
@@ -1353,10 +1346,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F22:F28">
-    <cfRule type="uniqueValues" dxfId="3" priority="81"/>
+    <cfRule type="uniqueValues" dxfId="2" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="uniqueValues" dxfId="2" priority="84"/>
+    <cfRule type="uniqueValues" dxfId="1" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E29">
     <cfRule type="uniqueValues" dxfId="0" priority="1"/>

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KamanProd_ChangeBranch\Kaman_Production_Sanity\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6742FC-147D-458C-82FA-8D3B87CCEE30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF008A19-9FF3-48AD-AE00-5647E24807D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="63">
   <si>
     <t>Functionality</t>
   </si>
@@ -230,15 +230,6 @@
   </si>
   <si>
     <t>Runmode</t>
-  </si>
-  <si>
-    <t>TC41_Add_MultipleItems_to_cart_Prod</t>
-  </si>
-  <si>
-    <t>Adding multiple items to cart in prod</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
 </sst>
 </file>
@@ -749,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9FC807-CD3D-4456-9922-7EB264FD2C96}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1324,34 +1315,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="F22:F28">
-    <cfRule type="uniqueValues" dxfId="2" priority="81"/>
+    <cfRule type="uniqueValues" dxfId="2" priority="82"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
-    <cfRule type="uniqueValues" dxfId="1" priority="84"/>
+  <conditionalFormatting sqref="E2:E28">
+    <cfRule type="uniqueValues" dxfId="1" priority="85"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E29">
+  <conditionalFormatting sqref="E3:E28">
     <cfRule type="uniqueValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KamanProd_ChangeBranch\Kaman_Production_Sanity\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF008A19-9FF3-48AD-AE00-5647E24807D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A3D12C-72C6-4B64-9274-A00E3096D861}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="65">
   <si>
     <t>Functionality</t>
   </si>
@@ -230,6 +230,13 @@
   </si>
   <si>
     <t>Runmode</t>
+  </si>
+  <si>
+    <t>TC40_Adding_MultipleItems_QuickOrder</t>
+  </si>
+  <si>
+    <t>1. more than 10 Items should be added to cart
+2. Appropriate inventory message must be displayed</t>
   </si>
 </sst>
 </file>
@@ -367,7 +374,187 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{A444948E-6AA8-45F3-AB40-38513383CF85}"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -740,9 +927,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9FC807-CD3D-4456-9922-7EB264FD2C96}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E28"/>
     </sheetView>
   </sheetViews>
@@ -1315,14 +1502,88 @@
         <v>9</v>
       </c>
     </row>
+    <row r="29" spans="1:6" ht="30">
+      <c r="A29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="F22:F28">
-    <cfRule type="uniqueValues" dxfId="2" priority="82"/>
+    <cfRule type="uniqueValues" dxfId="20" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E28">
-    <cfRule type="uniqueValues" dxfId="1" priority="85"/>
+    <cfRule type="uniqueValues" dxfId="19" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E28">
+    <cfRule type="uniqueValues" dxfId="18" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="uniqueValues" dxfId="17" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="uniqueValues" dxfId="16" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="uniqueValues" dxfId="15" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="uniqueValues" dxfId="14" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="uniqueValues" dxfId="13" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="uniqueValues" dxfId="12" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="uniqueValues" dxfId="11" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="uniqueValues" dxfId="10" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="uniqueValues" dxfId="9" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="uniqueValues" dxfId="8" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="uniqueValues" dxfId="7" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="uniqueValues" dxfId="6" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="uniqueValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="uniqueValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="uniqueValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="uniqueValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="uniqueValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
     <cfRule type="uniqueValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
